--- a/data/extracted_data/raw_round2/Marsden_2016_Fig_5.xlsx
+++ b/data/extracted_data/raw_round2/Marsden_2016_Fig_5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinafang19961207/Desktop/biotoxin_depuration_round2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209FB15D-FC45-E64D-B204-1BC5BE90099D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{209FB15D-FC45-E64D-B204-1BC5BE90099D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0248A5D7-84C1-CF48-AECF-B15EF530595A}"/>
   <bookViews>
-    <workbookView xWindow="17160" yWindow="4460" windowWidth="27640" windowHeight="16940" xr2:uid="{99D24157-2012-A244-B27A-D188AD5D9705}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{99D24157-2012-A244-B27A-D188AD5D9705}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,19 +38,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
   <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>treatment</t>
-  </si>
-  <si>
     <t>Southern tuatua clam</t>
   </si>
   <si>
-    <t>toxticity</t>
+    <t>Green-lipped mussel</t>
   </si>
   <si>
-    <t>Green-lipped mussel</t>
+    <t>species</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>toxicity</t>
   </si>
 </sst>
 </file>
@@ -106,9 +106,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -146,7 +146,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -252,7 +252,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -394,7 +394,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -405,7 +405,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -415,18 +415,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>18</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>14</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>18</v>
